--- a/kirill/Labor2/Vse_Grafiki.xlsx
+++ b/kirill/Labor2/Vse_Grafiki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kirill\Desktop\Vse_proekt\AlgAndStrData\Labor2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF0E283-3041-4889-AF5C-509A7A1C4898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBC9C7C-B5F4-40CA-A1AC-A1C095D83365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,6 +299,9 @@
                 <c:pt idx="40">
                   <c:v>4010</c:v>
                 </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -309,127 +312,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="501"/>
                 <c:pt idx="0">
-                  <c:v>1.474389998293191E-5</c:v>
+                  <c:v>1.4743899982931911E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1479599999765922E-5</c:v>
+                  <c:v>5.1479599999765925E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8688999985151896E-5</c:v>
+                  <c:v>8.8688999985151893E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2542100002428921E-4</c:v>
+                  <c:v>1.2542100002428921E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.610987999970348E-4</c:v>
+                  <c:v>1.6109879999703479E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9506370000499371E-4</c:v>
+                  <c:v>1.9506370000499371E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4817889999576438E-4</c:v>
+                  <c:v>2.481788999957644E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8422340001316122E-4</c:v>
+                  <c:v>2.8422340001316123E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2046209998497943E-4</c:v>
+                  <c:v>3.2046209998497945E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5615579999330292E-4</c:v>
+                  <c:v>3.5615579999330292E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0348389996870541E-4</c:v>
+                  <c:v>4.0348389996870546E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4314670000858322E-4</c:v>
+                  <c:v>4.4314670000858325E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8577580001619942E-4</c:v>
+                  <c:v>4.8577580001619946E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.1414519997433671E-4</c:v>
+                  <c:v>5.1414519997433675E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.568539000050805E-4</c:v>
+                  <c:v>5.568539000050805E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0545499998443115E-4</c:v>
+                  <c:v>6.0545499998443118E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.4482589999079209E-4</c:v>
+                  <c:v>6.4482589999079212E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.8819479997091551E-4</c:v>
+                  <c:v>6.8819479997091559E-5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.297384000207785E-4</c:v>
+                  <c:v>7.2973840002077858E-5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.5645320000876381E-4</c:v>
+                  <c:v>7.5645320000876381E-5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.9734160000816698E-4</c:v>
+                  <c:v>7.9734160000816706E-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.3092740001120544E-4</c:v>
+                  <c:v>8.3092740001120544E-5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.8692429998354786E-4</c:v>
+                  <c:v>8.8692429998354791E-5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.1998940000848962E-4</c:v>
+                  <c:v>9.1998940000848965E-5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.7772549995806912E-4</c:v>
+                  <c:v>9.5772549995806904E-5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.0035185999995519E-3</c:v>
+                  <c:v>1.0035185999995519E-4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.036520400004065E-3</c:v>
+                  <c:v>1.036520400004065E-4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0839667000341251E-3</c:v>
+                  <c:v>1.0839667000341252E-4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.116455099986069E-3</c:v>
+                  <c:v>1.1164550999860691E-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.14875690002123E-3</c:v>
+                  <c:v>1.14875690002123E-4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.1904860000017999E-3</c:v>
+                  <c:v>1.1904860000018E-4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.2295786000167939E-3</c:v>
+                  <c:v>1.2295786000167939E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.2735587999991699E-3</c:v>
+                  <c:v>1.2735587999991699E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.308158899998034E-3</c:v>
+                  <c:v>1.308158899998034E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.3671817999837E-3</c:v>
+                  <c:v>1.3671817999837E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.4058051999998301E-3</c:v>
+                  <c:v>1.40580519999983E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.4403456999989999E-3</c:v>
+                  <c:v>1.4403456999990001E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.4727944999963099E-3</c:v>
+                  <c:v>1.4727944999963101E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.515785300018706E-3</c:v>
+                  <c:v>1.515785300018706E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.5516178000043511E-3</c:v>
+                  <c:v>1.5516178000043513E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.5721932000105879E-3</c:v>
+                  <c:v>1.572193200010588E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -627,127 +630,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="501"/>
                 <c:pt idx="0">
-                  <c:v>2.5016999979470711E-5</c:v>
+                  <c:v>2.5016999979470714E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0987700019722978E-5</c:v>
+                  <c:v>6.098770001972298E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5595100007358266E-5</c:v>
+                  <c:v>9.5595100007358272E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3114359998962749E-4</c:v>
+                  <c:v>1.311435999896275E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.635693999855903E-4</c:v>
+                  <c:v>1.635693999855903E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.094494000152736E-4</c:v>
+                  <c:v>2.0944940001527362E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4987890002466882E-4</c:v>
+                  <c:v>2.4987890002466883E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8350419999105731E-4</c:v>
+                  <c:v>2.8350419999105733E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1591130000651902E-4</c:v>
+                  <c:v>3.1591130000651902E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4905860000799302E-4</c:v>
+                  <c:v>3.4905860000799306E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9217720000851838E-4</c:v>
+                  <c:v>3.9217720000851841E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.2909399996506178E-4</c:v>
+                  <c:v>4.2909399996506178E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.6888869996746511E-4</c:v>
+                  <c:v>4.6888869996746515E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.9567829999841711E-4</c:v>
+                  <c:v>4.9567829999841712E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.3446209998946872E-4</c:v>
+                  <c:v>5.3446209998946878E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.7940360000611688E-4</c:v>
+                  <c:v>5.7940360000611689E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.1339550000366215E-4</c:v>
+                  <c:v>6.1339550000366218E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.5590619997783501E-4</c:v>
+                  <c:v>6.5590619997783501E-5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.9489020000992245E-4</c:v>
+                  <c:v>6.9489020000992248E-5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.1882240000468295E-4</c:v>
+                  <c:v>7.1882240000468298E-5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.540430000112792E-4</c:v>
+                  <c:v>7.5404300001127928E-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.8510940000705882E-4</c:v>
+                  <c:v>7.8510940000705887E-5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.3721379999497007E-4</c:v>
+                  <c:v>8.3721379999497018E-5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.6885070002199426E-4</c:v>
+                  <c:v>8.6885070002199437E-5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.1937139999299683E-4</c:v>
+                  <c:v>9.0937139999299697E-5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.4586560000743702E-4</c:v>
+                  <c:v>9.4586560000743712E-5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.7283089996199126E-4</c:v>
+                  <c:v>9.7283089996199129E-5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0172375000111059E-3</c:v>
+                  <c:v>1.017237500011106E-4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.047347400007766E-3</c:v>
+                  <c:v>1.047347400007766E-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.068385000070066E-3</c:v>
+                  <c:v>1.0683850000700661E-4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.099095200021111E-3</c:v>
+                  <c:v>1.1190952000211099E-4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.151506300000619E-3</c:v>
+                  <c:v>1.151506300000619E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.17582789999735E-3</c:v>
+                  <c:v>1.1758278999973501E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.21595529999308E-3</c:v>
+                  <c:v>1.2159552999930801E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.2506513000089599E-3</c:v>
+                  <c:v>1.25065130000896E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.29689209999447E-3</c:v>
+                  <c:v>1.29689209999447E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.34430780000075E-3</c:v>
+                  <c:v>1.34430780000075E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.38494089997561E-3</c:v>
+                  <c:v>1.3849408999756099E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.41453929999534E-3</c:v>
+                  <c:v>1.41453929999534E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.4473264000234849E-3</c:v>
+                  <c:v>1.4473264000234849E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.464493399980256E-3</c:v>
+                  <c:v>1.464493399980256E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -930,127 +933,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="501"/>
                 <c:pt idx="0">
-                  <c:v>2.8689199971267951E-5</c:v>
+                  <c:v>2.8689199971267951E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.600989997468787E-5</c:v>
+                  <c:v>6.600989997468787E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0161709999147211E-4</c:v>
+                  <c:v>1.0161709999147211E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3682829998288071E-4</c:v>
+                  <c:v>1.3682829998288071E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6989449999664429E-4</c:v>
+                  <c:v>1.698944999966443E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0213340000873361E-4</c:v>
+                  <c:v>2.0213340000873363E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3892380001689159E-4</c:v>
+                  <c:v>2.389238000168916E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7138479998302498E-4</c:v>
+                  <c:v>2.7138479998302498E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.017555000214998E-4</c:v>
+                  <c:v>3.0175550002149983E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3464129999447322E-4</c:v>
+                  <c:v>3.346412999944732E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.7325819998841332E-4</c:v>
+                  <c:v>3.7325819998841336E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.0904339997905481E-4</c:v>
+                  <c:v>4.0904339997905481E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4496759998764902E-4</c:v>
+                  <c:v>4.4496759998764905E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.6985600000516568E-4</c:v>
+                  <c:v>4.6985600000516568E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0774380000393653E-4</c:v>
+                  <c:v>5.0774380000393658E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.523779000095601E-4</c:v>
+                  <c:v>5.523779000095601E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.8180949996994964E-4</c:v>
+                  <c:v>5.8180949996994965E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.207375000117281E-4</c:v>
+                  <c:v>6.2073750001172807E-5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.5622989998973934E-4</c:v>
+                  <c:v>6.5622989998973943E-5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.7783440001176133E-4</c:v>
+                  <c:v>6.7783440001176131E-5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.1214420003207126E-4</c:v>
+                  <c:v>7.1214420003207126E-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.4204340001915621E-4</c:v>
+                  <c:v>7.4204340001915629E-5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.8915180000240068E-4</c:v>
+                  <c:v>7.8915180000240068E-5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.2058749999123397E-4</c:v>
+                  <c:v>8.20587499991234E-5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.6842189996923485E-4</c:v>
+                  <c:v>8.5842189996923504E-5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.9198429998577924E-4</c:v>
+                  <c:v>8.9198429998577932E-5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.2031960001986589E-4</c:v>
+                  <c:v>9.2031960001986597E-5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.5995160000620673E-4</c:v>
+                  <c:v>9.5995160000620681E-5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.8780139999735182E-4</c:v>
+                  <c:v>9.8780139999735193E-5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0020666999698731E-3</c:v>
+                  <c:v>1.01206669996987E-4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.04198569999131E-3</c:v>
+                  <c:v>1.0419856999913101E-4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.082415899954412E-3</c:v>
+                  <c:v>1.082415899954412E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1173126000015E-3</c:v>
+                  <c:v>1.1173126000015E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.1530441999611869E-3</c:v>
+                  <c:v>1.153044199961187E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.1773151000070499E-3</c:v>
+                  <c:v>1.17731510000705E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.22013419998553E-3</c:v>
+                  <c:v>1.22013419998553E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.2629414000037301E-3</c:v>
+                  <c:v>1.2629414000037302E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.3023240999998399E-3</c:v>
+                  <c:v>1.3023240999998401E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.330224700006056E-3</c:v>
+                  <c:v>1.330224700006056E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.356979200037586E-3</c:v>
+                  <c:v>1.3569792000375861E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.3755406000191209E-3</c:v>
+                  <c:v>1.3755406000191209E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2254,13 +2257,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AJ19" sqref="AJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -2278,19 +2286,19 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1.474389998293191E-5</v>
+        <v>1.4743899982931911E-6</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3">
-        <v>2.5016999979470711E-5</v>
+        <v>2.5016999979470714E-6</v>
       </c>
       <c r="G3">
         <v>10</v>
       </c>
       <c r="H3">
-        <v>2.8689199971267951E-5</v>
+        <v>2.8689199971267951E-6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -2298,19 +2306,19 @@
         <v>110</v>
       </c>
       <c r="B4">
-        <v>5.1479599999765922E-5</v>
+        <v>5.1479599999765925E-6</v>
       </c>
       <c r="D4">
         <v>110</v>
       </c>
       <c r="E4">
-        <v>6.0987700019722978E-5</v>
+        <v>6.098770001972298E-6</v>
       </c>
       <c r="G4">
         <v>110</v>
       </c>
       <c r="H4">
-        <v>6.600989997468787E-5</v>
+        <v>6.600989997468787E-6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -2318,19 +2326,19 @@
         <v>210</v>
       </c>
       <c r="B5">
-        <v>8.8688999985151896E-5</v>
+        <v>8.8688999985151893E-6</v>
       </c>
       <c r="D5">
         <v>210</v>
       </c>
       <c r="E5">
-        <v>9.5595100007358266E-5</v>
+        <v>9.5595100007358272E-6</v>
       </c>
       <c r="G5">
         <v>210</v>
       </c>
       <c r="H5">
-        <v>1.0161709999147211E-4</v>
+        <v>1.0161709999147211E-5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -2338,19 +2346,19 @@
         <v>310</v>
       </c>
       <c r="B6">
-        <v>1.2542100002428921E-4</v>
+        <v>1.2542100002428921E-5</v>
       </c>
       <c r="D6">
         <v>310</v>
       </c>
       <c r="E6">
-        <v>1.3114359998962749E-4</v>
+        <v>1.311435999896275E-5</v>
       </c>
       <c r="G6">
         <v>310</v>
       </c>
       <c r="H6">
-        <v>1.3682829998288071E-4</v>
+        <v>1.3682829998288071E-5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -2358,19 +2366,19 @@
         <v>410</v>
       </c>
       <c r="B7">
-        <v>1.610987999970348E-4</v>
+        <v>1.6109879999703479E-5</v>
       </c>
       <c r="D7">
         <v>410</v>
       </c>
       <c r="E7">
-        <v>1.635693999855903E-4</v>
+        <v>1.635693999855903E-5</v>
       </c>
       <c r="G7">
         <v>410</v>
       </c>
       <c r="H7">
-        <v>1.6989449999664429E-4</v>
+        <v>1.698944999966443E-5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -2378,19 +2386,19 @@
         <v>510</v>
       </c>
       <c r="B8">
-        <v>1.9506370000499371E-4</v>
+        <v>1.9506370000499371E-5</v>
       </c>
       <c r="D8">
         <v>510</v>
       </c>
       <c r="E8">
-        <v>2.094494000152736E-4</v>
+        <v>2.0944940001527362E-5</v>
       </c>
       <c r="G8">
         <v>510</v>
       </c>
       <c r="H8">
-        <v>2.0213340000873361E-4</v>
+        <v>2.0213340000873363E-5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -2398,19 +2406,19 @@
         <v>610</v>
       </c>
       <c r="B9">
-        <v>2.4817889999576438E-4</v>
+        <v>2.481788999957644E-5</v>
       </c>
       <c r="D9">
         <v>610</v>
       </c>
       <c r="E9">
-        <v>2.4987890002466882E-4</v>
+        <v>2.4987890002466883E-5</v>
       </c>
       <c r="G9">
         <v>610</v>
       </c>
       <c r="H9">
-        <v>2.3892380001689159E-4</v>
+        <v>2.389238000168916E-5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -2418,19 +2426,19 @@
         <v>710</v>
       </c>
       <c r="B10">
-        <v>2.8422340001316122E-4</v>
+        <v>2.8422340001316123E-5</v>
       </c>
       <c r="D10">
         <v>710</v>
       </c>
       <c r="E10">
-        <v>2.8350419999105731E-4</v>
+        <v>2.8350419999105733E-5</v>
       </c>
       <c r="G10">
         <v>710</v>
       </c>
       <c r="H10">
-        <v>2.7138479998302498E-4</v>
+        <v>2.7138479998302498E-5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -2438,19 +2446,19 @@
         <v>810</v>
       </c>
       <c r="B11">
-        <v>3.2046209998497943E-4</v>
+        <v>3.2046209998497945E-5</v>
       </c>
       <c r="D11">
         <v>810</v>
       </c>
       <c r="E11">
-        <v>3.1591130000651902E-4</v>
+        <v>3.1591130000651902E-5</v>
       </c>
       <c r="G11">
         <v>810</v>
       </c>
       <c r="H11">
-        <v>3.017555000214998E-4</v>
+        <v>3.0175550002149983E-5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -2458,19 +2466,19 @@
         <v>910</v>
       </c>
       <c r="B12">
-        <v>3.5615579999330292E-4</v>
+        <v>3.5615579999330292E-5</v>
       </c>
       <c r="D12">
         <v>910</v>
       </c>
       <c r="E12">
-        <v>3.4905860000799302E-4</v>
+        <v>3.4905860000799306E-5</v>
       </c>
       <c r="G12">
         <v>910</v>
       </c>
       <c r="H12">
-        <v>3.3464129999447322E-4</v>
+        <v>3.346412999944732E-5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -2478,19 +2486,19 @@
         <v>1010</v>
       </c>
       <c r="B13">
-        <v>4.0348389996870541E-4</v>
+        <v>4.0348389996870546E-5</v>
       </c>
       <c r="D13">
         <v>1010</v>
       </c>
       <c r="E13">
-        <v>3.9217720000851838E-4</v>
+        <v>3.9217720000851841E-5</v>
       </c>
       <c r="G13">
         <v>1010</v>
       </c>
       <c r="H13">
-        <v>3.7325819998841332E-4</v>
+        <v>3.7325819998841336E-5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -2498,19 +2506,19 @@
         <v>1110</v>
       </c>
       <c r="B14">
-        <v>4.4314670000858322E-4</v>
+        <v>4.4314670000858325E-5</v>
       </c>
       <c r="D14">
         <v>1110</v>
       </c>
       <c r="E14">
-        <v>4.2909399996506178E-4</v>
+        <v>4.2909399996506178E-5</v>
       </c>
       <c r="G14">
         <v>1110</v>
       </c>
       <c r="H14">
-        <v>4.0904339997905481E-4</v>
+        <v>4.0904339997905481E-5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -2518,19 +2526,19 @@
         <v>1210</v>
       </c>
       <c r="B15">
-        <v>4.8577580001619942E-4</v>
+        <v>4.8577580001619946E-5</v>
       </c>
       <c r="D15">
         <v>1210</v>
       </c>
       <c r="E15">
-        <v>4.6888869996746511E-4</v>
+        <v>4.6888869996746515E-5</v>
       </c>
       <c r="G15">
         <v>1210</v>
       </c>
       <c r="H15">
-        <v>4.4496759998764902E-4</v>
+        <v>4.4496759998764905E-5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -2538,19 +2546,19 @@
         <v>1310</v>
       </c>
       <c r="B16">
-        <v>5.1414519997433671E-4</v>
+        <v>5.1414519997433675E-5</v>
       </c>
       <c r="D16">
         <v>1310</v>
       </c>
       <c r="E16">
-        <v>4.9567829999841711E-4</v>
+        <v>4.9567829999841712E-5</v>
       </c>
       <c r="G16">
         <v>1310</v>
       </c>
       <c r="H16">
-        <v>4.6985600000516568E-4</v>
+        <v>4.6985600000516568E-5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -2558,19 +2566,19 @@
         <v>1410</v>
       </c>
       <c r="B17">
-        <v>5.568539000050805E-4</v>
+        <v>5.568539000050805E-5</v>
       </c>
       <c r="D17">
         <v>1410</v>
       </c>
       <c r="E17">
-        <v>5.3446209998946872E-4</v>
+        <v>5.3446209998946878E-5</v>
       </c>
       <c r="G17">
         <v>1410</v>
       </c>
       <c r="H17">
-        <v>5.0774380000393653E-4</v>
+        <v>5.0774380000393658E-5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -2578,19 +2586,19 @@
         <v>1510</v>
       </c>
       <c r="B18">
-        <v>6.0545499998443115E-4</v>
+        <v>6.0545499998443118E-5</v>
       </c>
       <c r="D18">
         <v>1510</v>
       </c>
       <c r="E18">
-        <v>5.7940360000611688E-4</v>
+        <v>5.7940360000611689E-5</v>
       </c>
       <c r="G18">
         <v>1510</v>
       </c>
       <c r="H18">
-        <v>5.523779000095601E-4</v>
+        <v>5.523779000095601E-5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -2598,19 +2606,19 @@
         <v>1610</v>
       </c>
       <c r="B19">
-        <v>6.4482589999079209E-4</v>
+        <v>6.4482589999079212E-5</v>
       </c>
       <c r="D19">
         <v>1610</v>
       </c>
       <c r="E19">
-        <v>6.1339550000366215E-4</v>
+        <v>6.1339550000366218E-5</v>
       </c>
       <c r="G19">
         <v>1610</v>
       </c>
       <c r="H19">
-        <v>5.8180949996994964E-4</v>
+        <v>5.8180949996994965E-5</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -2618,19 +2626,19 @@
         <v>1710</v>
       </c>
       <c r="B20">
-        <v>6.8819479997091551E-4</v>
+        <v>6.8819479997091559E-5</v>
       </c>
       <c r="D20">
         <v>1710</v>
       </c>
       <c r="E20">
-        <v>6.5590619997783501E-4</v>
+        <v>6.5590619997783501E-5</v>
       </c>
       <c r="G20">
         <v>1710</v>
       </c>
       <c r="H20">
-        <v>6.207375000117281E-4</v>
+        <v>6.2073750001172807E-5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -2638,19 +2646,19 @@
         <v>1810</v>
       </c>
       <c r="B21">
-        <v>7.297384000207785E-4</v>
+        <v>7.2973840002077858E-5</v>
       </c>
       <c r="D21">
         <v>1810</v>
       </c>
       <c r="E21">
-        <v>6.9489020000992245E-4</v>
+        <v>6.9489020000992248E-5</v>
       </c>
       <c r="G21">
         <v>1810</v>
       </c>
       <c r="H21">
-        <v>6.5622989998973934E-4</v>
+        <v>6.5622989998973943E-5</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -2658,19 +2666,19 @@
         <v>1910</v>
       </c>
       <c r="B22">
-        <v>7.5645320000876381E-4</v>
+        <v>7.5645320000876381E-5</v>
       </c>
       <c r="D22">
         <v>1910</v>
       </c>
       <c r="E22">
-        <v>7.1882240000468295E-4</v>
+        <v>7.1882240000468298E-5</v>
       </c>
       <c r="G22">
         <v>1910</v>
       </c>
       <c r="H22">
-        <v>6.7783440001176133E-4</v>
+        <v>6.7783440001176131E-5</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -2678,19 +2686,19 @@
         <v>2010</v>
       </c>
       <c r="B23">
-        <v>7.9734160000816698E-4</v>
+        <v>7.9734160000816706E-5</v>
       </c>
       <c r="D23">
         <v>2010</v>
       </c>
       <c r="E23">
-        <v>7.540430000112792E-4</v>
+        <v>7.5404300001127928E-5</v>
       </c>
       <c r="G23">
         <v>2010</v>
       </c>
       <c r="H23">
-        <v>7.1214420003207126E-4</v>
+        <v>7.1214420003207126E-5</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -2698,19 +2706,19 @@
         <v>2110</v>
       </c>
       <c r="B24">
-        <v>8.3092740001120544E-4</v>
+        <v>8.3092740001120544E-5</v>
       </c>
       <c r="D24">
         <v>2110</v>
       </c>
       <c r="E24">
-        <v>7.8510940000705882E-4</v>
+        <v>7.8510940000705887E-5</v>
       </c>
       <c r="G24">
         <v>2110</v>
       </c>
       <c r="H24">
-        <v>7.4204340001915621E-4</v>
+        <v>7.4204340001915629E-5</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -2718,19 +2726,19 @@
         <v>2210</v>
       </c>
       <c r="B25">
-        <v>8.8692429998354786E-4</v>
+        <v>8.8692429998354791E-5</v>
       </c>
       <c r="D25">
         <v>2210</v>
       </c>
       <c r="E25">
-        <v>8.3721379999497007E-4</v>
+        <v>8.3721379999497018E-5</v>
       </c>
       <c r="G25">
         <v>2210</v>
       </c>
       <c r="H25">
-        <v>7.8915180000240068E-4</v>
+        <v>7.8915180000240068E-5</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -2738,19 +2746,19 @@
         <v>2310</v>
       </c>
       <c r="B26">
-        <v>9.1998940000848962E-4</v>
+        <v>9.1998940000848965E-5</v>
       </c>
       <c r="D26">
         <v>2310</v>
       </c>
       <c r="E26">
-        <v>8.6885070002199426E-4</v>
+        <v>8.6885070002199437E-5</v>
       </c>
       <c r="G26">
         <v>2310</v>
       </c>
       <c r="H26">
-        <v>8.2058749999123397E-4</v>
+        <v>8.20587499991234E-5</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -2758,19 +2766,19 @@
         <v>2410</v>
       </c>
       <c r="B27">
-        <v>9.7772549995806912E-4</v>
+        <v>9.5772549995806904E-5</v>
       </c>
       <c r="D27">
         <v>2410</v>
       </c>
       <c r="E27">
-        <v>9.1937139999299683E-4</v>
+        <v>9.0937139999299697E-5</v>
       </c>
       <c r="G27">
         <v>2410</v>
       </c>
       <c r="H27">
-        <v>8.6842189996923485E-4</v>
+        <v>8.5842189996923504E-5</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -2778,19 +2786,19 @@
         <v>2510</v>
       </c>
       <c r="B28">
-        <v>1.0035185999995519E-3</v>
+        <v>1.0035185999995519E-4</v>
       </c>
       <c r="D28">
         <v>2510</v>
       </c>
       <c r="E28">
-        <v>9.4586560000743702E-4</v>
+        <v>9.4586560000743712E-5</v>
       </c>
       <c r="G28">
         <v>2510</v>
       </c>
       <c r="H28">
-        <v>8.9198429998577924E-4</v>
+        <v>8.9198429998577932E-5</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -2798,19 +2806,19 @@
         <v>2610</v>
       </c>
       <c r="B29">
-        <v>1.036520400004065E-3</v>
+        <v>1.036520400004065E-4</v>
       </c>
       <c r="D29">
         <v>2610</v>
       </c>
       <c r="E29">
-        <v>9.7283089996199126E-4</v>
+        <v>9.7283089996199129E-5</v>
       </c>
       <c r="G29">
         <v>2610</v>
       </c>
       <c r="H29">
-        <v>9.2031960001986589E-4</v>
+        <v>9.2031960001986597E-5</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -2818,19 +2826,19 @@
         <v>2710</v>
       </c>
       <c r="B30">
-        <v>1.0839667000341251E-3</v>
+        <v>1.0839667000341252E-4</v>
       </c>
       <c r="D30">
         <v>2710</v>
       </c>
       <c r="E30">
-        <v>1.0172375000111059E-3</v>
+        <v>1.017237500011106E-4</v>
       </c>
       <c r="G30">
         <v>2710</v>
       </c>
       <c r="H30">
-        <v>9.5995160000620673E-4</v>
+        <v>9.5995160000620681E-5</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -2838,19 +2846,19 @@
         <v>2810</v>
       </c>
       <c r="B31">
-        <v>1.116455099986069E-3</v>
+        <v>1.1164550999860691E-4</v>
       </c>
       <c r="D31">
         <v>2810</v>
       </c>
       <c r="E31">
-        <v>1.047347400007766E-3</v>
+        <v>1.047347400007766E-4</v>
       </c>
       <c r="G31">
         <v>2810</v>
       </c>
       <c r="H31">
-        <v>9.8780139999735182E-4</v>
+        <v>9.8780139999735193E-5</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -2858,19 +2866,19 @@
         <v>2910</v>
       </c>
       <c r="B32">
-        <v>1.14875690002123E-3</v>
+        <v>1.14875690002123E-4</v>
       </c>
       <c r="D32">
         <v>2910</v>
       </c>
       <c r="E32">
-        <v>1.068385000070066E-3</v>
+        <v>1.0683850000700661E-4</v>
       </c>
       <c r="G32">
         <v>2910</v>
       </c>
       <c r="H32">
-        <v>1.0020666999698731E-3</v>
+        <v>1.01206669996987E-4</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -2878,19 +2886,19 @@
         <v>3010</v>
       </c>
       <c r="B33">
-        <v>1.1904860000017999E-3</v>
+        <v>1.1904860000018E-4</v>
       </c>
       <c r="D33">
         <v>3010</v>
       </c>
       <c r="E33">
-        <v>1.099095200021111E-3</v>
+        <v>1.1190952000211099E-4</v>
       </c>
       <c r="G33">
         <v>3010</v>
       </c>
       <c r="H33">
-        <v>1.04198569999131E-3</v>
+        <v>1.0419856999913101E-4</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
@@ -2898,19 +2906,19 @@
         <v>3110</v>
       </c>
       <c r="B34">
-        <v>1.2295786000167939E-3</v>
+        <v>1.2295786000167939E-4</v>
       </c>
       <c r="D34">
         <v>3110</v>
       </c>
       <c r="E34">
-        <v>1.151506300000619E-3</v>
+        <v>1.151506300000619E-4</v>
       </c>
       <c r="G34">
         <v>3110</v>
       </c>
       <c r="H34">
-        <v>1.082415899954412E-3</v>
+        <v>1.082415899954412E-4</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -2918,19 +2926,19 @@
         <v>3210</v>
       </c>
       <c r="B35">
-        <v>1.2735587999991699E-3</v>
+        <v>1.2735587999991699E-4</v>
       </c>
       <c r="D35">
         <v>3210</v>
       </c>
       <c r="E35">
-        <v>1.17582789999735E-3</v>
+        <v>1.1758278999973501E-4</v>
       </c>
       <c r="G35">
         <v>3210</v>
       </c>
       <c r="H35">
-        <v>1.1173126000015E-3</v>
+        <v>1.1173126000015E-4</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -2938,19 +2946,19 @@
         <v>3310</v>
       </c>
       <c r="B36">
-        <v>1.308158899998034E-3</v>
+        <v>1.308158899998034E-4</v>
       </c>
       <c r="D36">
         <v>3310</v>
       </c>
       <c r="E36">
-        <v>1.21595529999308E-3</v>
+        <v>1.2159552999930801E-4</v>
       </c>
       <c r="G36">
         <v>3310</v>
       </c>
       <c r="H36">
-        <v>1.1530441999611869E-3</v>
+        <v>1.153044199961187E-4</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -2958,19 +2966,19 @@
         <v>3410</v>
       </c>
       <c r="B37">
-        <v>1.3671817999837E-3</v>
+        <v>1.3671817999837E-4</v>
       </c>
       <c r="D37">
         <v>3410</v>
       </c>
       <c r="E37">
-        <v>1.2506513000089599E-3</v>
+        <v>1.25065130000896E-4</v>
       </c>
       <c r="G37">
         <v>3410</v>
       </c>
       <c r="H37">
-        <v>1.1773151000070499E-3</v>
+        <v>1.17731510000705E-4</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -2978,19 +2986,19 @@
         <v>3510</v>
       </c>
       <c r="B38">
-        <v>1.4058051999998301E-3</v>
+        <v>1.40580519999983E-4</v>
       </c>
       <c r="D38">
         <v>3510</v>
       </c>
       <c r="E38">
-        <v>1.29689209999447E-3</v>
+        <v>1.29689209999447E-4</v>
       </c>
       <c r="G38">
         <v>3510</v>
       </c>
       <c r="H38">
-        <v>1.22013419998553E-3</v>
+        <v>1.22013419998553E-4</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -2998,19 +3006,19 @@
         <v>3610</v>
       </c>
       <c r="B39">
-        <v>1.4403456999989999E-3</v>
+        <v>1.4403456999990001E-4</v>
       </c>
       <c r="D39">
         <v>3610</v>
       </c>
       <c r="E39">
-        <v>1.34430780000075E-3</v>
+        <v>1.34430780000075E-4</v>
       </c>
       <c r="G39">
         <v>3610</v>
       </c>
       <c r="H39">
-        <v>1.2629414000037301E-3</v>
+        <v>1.2629414000037302E-4</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -3018,19 +3026,19 @@
         <v>3710</v>
       </c>
       <c r="B40">
-        <v>1.4727944999963099E-3</v>
+        <v>1.4727944999963101E-4</v>
       </c>
       <c r="D40">
         <v>3710</v>
       </c>
       <c r="E40">
-        <v>1.38494089997561E-3</v>
+        <v>1.3849408999756099E-4</v>
       </c>
       <c r="G40">
         <v>3710</v>
       </c>
       <c r="H40">
-        <v>1.3023240999998399E-3</v>
+        <v>1.3023240999998401E-4</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -3038,19 +3046,19 @@
         <v>3810</v>
       </c>
       <c r="B41">
-        <v>1.515785300018706E-3</v>
+        <v>1.515785300018706E-4</v>
       </c>
       <c r="D41">
         <v>3810</v>
       </c>
       <c r="E41">
-        <v>1.41453929999534E-3</v>
+        <v>1.41453929999534E-4</v>
       </c>
       <c r="G41">
         <v>3810</v>
       </c>
       <c r="H41">
-        <v>1.330224700006056E-3</v>
+        <v>1.330224700006056E-4</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
@@ -3058,19 +3066,19 @@
         <v>3910</v>
       </c>
       <c r="B42">
-        <v>1.5516178000043511E-3</v>
+        <v>1.5516178000043513E-4</v>
       </c>
       <c r="D42">
         <v>3910</v>
       </c>
       <c r="E42">
-        <v>1.4473264000234849E-3</v>
+        <v>1.4473264000234849E-4</v>
       </c>
       <c r="G42">
         <v>3910</v>
       </c>
       <c r="H42">
-        <v>1.356979200037586E-3</v>
+        <v>1.3569792000375861E-4</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -3078,19 +3086,24 @@
         <v>4010</v>
       </c>
       <c r="B43">
-        <v>1.5721932000105879E-3</v>
+        <v>1.572193200010588E-4</v>
       </c>
       <c r="D43">
         <v>4010</v>
       </c>
       <c r="E43">
-        <v>1.464493399980256E-3</v>
+        <v>1.464493399980256E-4</v>
       </c>
       <c r="G43">
         <v>4010</v>
       </c>
       <c r="H43">
-        <v>1.3755406000191209E-3</v>
+        <v>1.3755406000191209E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/kirill/Labor2/Vse_Grafiki.xlsx
+++ b/kirill/Labor2/Vse_Grafiki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kirill\Desktop\Vse_proekt\AlgAndStrData\Labor2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBC9C7C-B5F4-40CA-A1AC-A1C095D83365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4CBB66-CB86-4329-8CFA-F7B97B8CE847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Кнут — Моррис — Пратт</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Прямой пребор</t>
+  </si>
+  <si>
+    <t>Сложность - O(n)</t>
   </si>
 </sst>
 </file>
@@ -167,8 +170,44 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.4313741151990167E-4"/>
+                  <c:y val="-5.5831238270363914E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -363,10 +402,10 @@
                   <c:v>6.4482589999079212E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.8819479997091559E-5</c:v>
+                  <c:v>6.7819479997091603E-5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.2973840002077858E-5</c:v>
+                  <c:v>7.1973840002077902E-5</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>7.5645320000876381E-5</c:v>
@@ -378,7 +417,7 @@
                   <c:v>8.3092740001120544E-5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.8692429998354791E-5</c:v>
+                  <c:v>8.7592429998354805E-5</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>9.1998940000848965E-5</c:v>
@@ -414,13 +453,13 @@
                   <c:v>1.308158899998034E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.3671817999837E-4</c:v>
+                  <c:v>1.3571817999837E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.40580519999983E-4</c:v>
+                  <c:v>1.39580519999983E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.4403456999990001E-4</c:v>
+                  <c:v>1.4303456999990001E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1.4727944999963101E-4</c:v>
@@ -488,8 +527,44 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1849961538822657E-3"/>
+                  <c:y val="2.4739727649575521E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -681,10 +756,10 @@
                   <c:v>6.1339550000366218E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.5590619997783501E-5</c:v>
+                  <c:v>6.4590619997783504E-5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.9489020000992248E-5</c:v>
+                  <c:v>6.8489020000992197E-5</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>7.1882240000468298E-5</c:v>
@@ -696,7 +771,7 @@
                   <c:v>7.8510940000705887E-5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.3721379999497018E-5</c:v>
+                  <c:v>8.2721379999496994E-5</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>8.6885070002199437E-5</c:v>
@@ -717,7 +792,7 @@
                   <c:v>1.047347400007766E-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0683850000700661E-4</c:v>
+                  <c:v>1.0883850000700699E-4</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1.1190952000211099E-4</c:v>
@@ -726,13 +801,13 @@
                   <c:v>1.151506300000619E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1758278999973501E-4</c:v>
+                  <c:v>1.1858278999973501E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.2159552999930801E-4</c:v>
+                  <c:v>1.2259552999930801E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.25065130000896E-4</c:v>
+                  <c:v>1.26065130000896E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1.29689209999447E-4</c:v>
@@ -791,8 +866,44 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.9994045423242365E-3"/>
+                  <c:y val="5.7785817260835176E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -984,10 +1095,10 @@
                   <c:v>5.8180949996994965E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.2073750001172807E-5</c:v>
+                  <c:v>6.1073750001172796E-5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.5622989998973943E-5</c:v>
+                  <c:v>6.4622989998973905E-5</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>6.7783440001176131E-5</c:v>
@@ -999,7 +1110,7 @@
                   <c:v>7.4204340001915629E-5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.8915180000240068E-5</c:v>
+                  <c:v>7.7915180000240098E-5</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>8.20587499991234E-5</c:v>
@@ -1035,7 +1146,7 @@
                   <c:v>1.153044199961187E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.17731510000705E-4</c:v>
+                  <c:v>1.18731510000705E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1.22013419998553E-4</c:v>
@@ -1958,15 +2069,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>569908</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>37760</xdr:rowOff>
+      <xdr:colOff>15726</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>176306</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>565728</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>80820</xdr:rowOff>
+      <xdr:colOff>11546</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>34638</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2257,10 +2368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AJ19" sqref="AJ19"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AP18" sqref="AP17:AP18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2626,19 +2737,19 @@
         <v>1710</v>
       </c>
       <c r="B20">
-        <v>6.8819479997091559E-5</v>
+        <v>6.7819479997091603E-5</v>
       </c>
       <c r="D20">
         <v>1710</v>
       </c>
       <c r="E20">
-        <v>6.5590619997783501E-5</v>
+        <v>6.4590619997783504E-5</v>
       </c>
       <c r="G20">
         <v>1710</v>
       </c>
       <c r="H20">
-        <v>6.2073750001172807E-5</v>
+        <v>6.1073750001172796E-5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -2646,19 +2757,19 @@
         <v>1810</v>
       </c>
       <c r="B21">
-        <v>7.2973840002077858E-5</v>
+        <v>7.1973840002077902E-5</v>
       </c>
       <c r="D21">
         <v>1810</v>
       </c>
       <c r="E21">
-        <v>6.9489020000992248E-5</v>
+        <v>6.8489020000992197E-5</v>
       </c>
       <c r="G21">
         <v>1810</v>
       </c>
       <c r="H21">
-        <v>6.5622989998973943E-5</v>
+        <v>6.4622989998973905E-5</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -2726,19 +2837,19 @@
         <v>2210</v>
       </c>
       <c r="B25">
-        <v>8.8692429998354791E-5</v>
+        <v>8.7592429998354805E-5</v>
       </c>
       <c r="D25">
         <v>2210</v>
       </c>
       <c r="E25">
-        <v>8.3721379999497018E-5</v>
+        <v>8.2721379999496994E-5</v>
       </c>
       <c r="G25">
         <v>2210</v>
       </c>
       <c r="H25">
-        <v>7.8915180000240068E-5</v>
+        <v>7.7915180000240098E-5</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -2872,7 +2983,7 @@
         <v>2910</v>
       </c>
       <c r="E32">
-        <v>1.0683850000700661E-4</v>
+        <v>1.0883850000700699E-4</v>
       </c>
       <c r="G32">
         <v>2910</v>
@@ -2881,7 +2992,7 @@
         <v>1.01206669996987E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>3010</v>
       </c>
@@ -2901,7 +3012,7 @@
         <v>1.0419856999913101E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>3110</v>
       </c>
@@ -2921,7 +3032,7 @@
         <v>1.082415899954412E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>3210</v>
       </c>
@@ -2932,7 +3043,7 @@
         <v>3210</v>
       </c>
       <c r="E35">
-        <v>1.1758278999973501E-4</v>
+        <v>1.1858278999973501E-4</v>
       </c>
       <c r="G35">
         <v>3210</v>
@@ -2941,7 +3052,7 @@
         <v>1.1173126000015E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>3310</v>
       </c>
@@ -2952,7 +3063,7 @@
         <v>3310</v>
       </c>
       <c r="E36">
-        <v>1.2159552999930801E-4</v>
+        <v>1.2259552999930801E-4</v>
       </c>
       <c r="G36">
         <v>3310</v>
@@ -2961,32 +3072,32 @@
         <v>1.153044199961187E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>3410</v>
       </c>
       <c r="B37">
-        <v>1.3671817999837E-4</v>
+        <v>1.3571817999837E-4</v>
       </c>
       <c r="D37">
         <v>3410</v>
       </c>
       <c r="E37">
-        <v>1.25065130000896E-4</v>
+        <v>1.26065130000896E-4</v>
       </c>
       <c r="G37">
         <v>3410</v>
       </c>
       <c r="H37">
-        <v>1.17731510000705E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1.18731510000705E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>3510</v>
       </c>
       <c r="B38">
-        <v>1.40580519999983E-4</v>
+        <v>1.39580519999983E-4</v>
       </c>
       <c r="D38">
         <v>3510</v>
@@ -3001,12 +3112,12 @@
         <v>1.22013419998553E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>3610</v>
       </c>
       <c r="B39">
-        <v>1.4403456999990001E-4</v>
+        <v>1.4303456999990001E-4</v>
       </c>
       <c r="D39">
         <v>3610</v>
@@ -3021,7 +3132,7 @@
         <v>1.2629414000037302E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>3710</v>
       </c>
@@ -3041,7 +3152,7 @@
         <v>1.3023240999998401E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>3810</v>
       </c>
@@ -3061,7 +3172,7 @@
         <v>1.330224700006056E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>3910</v>
       </c>
@@ -3081,7 +3192,7 @@
         <v>1.3569792000375861E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>4010</v>
       </c>
@@ -3100,8 +3211,11 @@
       <c r="H43">
         <v>1.3755406000191209E-4</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.1</v>
       </c>
